--- a/mental-health.xlsx
+++ b/mental-health.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analyst\DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analyst\DataSet\Mental Health Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,9 +23,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -738,12 +737,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,10 +749,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -806,30 +805,12 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="814">
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <alignment horizontal="left" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
+      <alignment vertical="top" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
@@ -841,147 +822,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -989,2909 +829,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="2" tint="-9.9734488967558821E-2"/>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3958,90 +895,6 @@
       <font>
         <sz val="11"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4151,11 +1004,103 @@
     <dxf>
       <alignment vertical="top" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="2" tint="-9.9734488967558821E-2"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="StyleCoksu " pivot="0" table="0" count="5">
-      <tableStyleElement type="wholeTable" dxfId="681"/>
-      <tableStyleElement type="headerRow" dxfId="680"/>
+      <tableStyleElement type="wholeTable" dxfId="65"/>
+      <tableStyleElement type="headerRow" dxfId="64"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4173,7 +1118,7 @@
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="22">
+      <x14:dxfs count="3">
         <dxf>
           <fill>
             <patternFill>
@@ -4196,199 +1141,6 @@
           <fill>
             <patternFill>
               <bgColor theme="8" tint="0.79998168889431442"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor theme="9" tint="-0.24994659260841701"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor theme="8" tint="0.79998168889431442"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor theme="8" tint="0.79998168889431442"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor theme="2" tint="-0.24994659260841701"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <name val="Calibri Light"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="6"/>
             </patternFill>
           </fill>
         </dxf>
@@ -5091,11 +1843,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-50669120"/>
-        <c:axId val="-50681088"/>
+        <c:axId val="589943744"/>
+        <c:axId val="589944288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-50669120"/>
+        <c:axId val="589943744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5194,7 +1946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-50681088"/>
+        <c:crossAx val="589944288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5202,7 +1954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-50681088"/>
+        <c:axId val="589944288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5309,7 +2061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-50669120"/>
+        <c:crossAx val="589943744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7052,11 +3804,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-50682720"/>
-        <c:axId val="-50681632"/>
+        <c:axId val="589932864"/>
+        <c:axId val="589933408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-50682720"/>
+        <c:axId val="589932864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7162,7 +3914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-50681632"/>
+        <c:crossAx val="589933408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7170,7 +3922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-50681632"/>
+        <c:axId val="589933408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7282,7 +4034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-50682720"/>
+        <c:crossAx val="589932864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8688,12 +5440,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-50678368"/>
-        <c:axId val="-50677824"/>
+        <c:axId val="589937760"/>
+        <c:axId val="589938304"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-50678368"/>
+        <c:axId val="589937760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8783,7 +5535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-50677824"/>
+        <c:crossAx val="589938304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8791,7 +5543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-50677824"/>
+        <c:axId val="589938304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8889,7 +5641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-50678368"/>
+        <c:crossAx val="589937760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11348,8 +8100,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>88527</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="GrowingStress"/>
@@ -11366,7 +8118,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11452,8 +8204,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>89646</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Gender"/>
@@ -11470,7 +8222,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11524,8 +8276,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Occupation"/>
@@ -11542,7 +8294,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -24872,309 +21624,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="StressIndoor" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Days Indoor" colHeaderCaption="Growing Stress">
-  <location ref="A13:E20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Growing_Stress" fld="4" subtotal="count" baseField="3" baseItem="0"/>
-  </dataFields>
-  <formats count="16">
-    <format dxfId="777">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="776">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="775">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="774">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="773">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="772">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="771">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="770">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="769">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="768">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="767">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="766">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="765">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="764">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="763">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="762">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="9">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Mood Swings" colHeaderCaption="Quarantine Frustations">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Mood Swings" colHeaderCaption="Quarantine Frustations">
   <location ref="A24:C29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -25260,44 +21710,44 @@
     <dataField name="Count of Quarantine_Frustrations" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="785">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="784">
+    <format dxfId="6">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="783">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="782">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="781">
+    <format dxfId="3">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="780">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="779">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="778">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -25510,8 +21960,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Mental Health History" colHeaderCaption="Coping Struggle">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Mental Health History" colHeaderCaption="Coping Struggle">
   <location ref="A32:D37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -25599,160 +22049,160 @@
     <dataField name="Count of Coping_Struggles" fld="10" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="809">
+    <format dxfId="43">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="808">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="807">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="806">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="805">
+    <format dxfId="39">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="804">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="803">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="802">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="801">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="800">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="799">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="798">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="797">
+    <format dxfId="31">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="796">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="795">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="794">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="793">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="792">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="791">
+    <format dxfId="25">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="790">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="789">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="788">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="787">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="786">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="761">
+    <format dxfId="19">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="760">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="759">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="758">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="757">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="756">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="755">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="754">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="753">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="752">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="751">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="750">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -25839,8 +22289,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="OccupationAge" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Occupation" colHeaderCaption="Age">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="OccupationAge" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Occupation" colHeaderCaption="Age">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisCol" showAll="0">
@@ -25935,24 +22385,24 @@
     <dataField name="Count of Occupation" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="813">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="812">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="811">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="810">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -26097,6 +22547,308 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="StressIndoor" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Days Indoor" colHeaderCaption="Growing Stress">
+  <location ref="A13:E20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Growing_Stress" fld="4" subtotal="count" baseField="3" baseItem="0"/>
+  </dataFields>
+  <formats count="16">
+    <format dxfId="63">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="9">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -26466,8 +23218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N825"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60327,8 +57079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60359,14 +57111,14 @@
       <c r="C1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -60523,17 +57275,17 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -60668,35 +57420,35 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -60768,95 +57520,95 @@
       <c r="C30"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="19" t="s">
+      <c r="B33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="21">
+      <c r="A34" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="19">
         <v>138</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="19">
         <v>146</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="19">
         <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="21">
+      <c r="A35" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="19">
         <v>127</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="19">
         <v>131</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="19">
         <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="21">
+      <c r="A36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="19">
         <v>149</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="19">
         <v>133</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="19">
         <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="19">
         <v>414</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="19">
         <v>410</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="19">
         <v>824</v>
       </c>
     </row>
@@ -60914,61 +57666,61 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
